--- a/contratos/contratos-2-2014.xlsx
+++ b/contratos/contratos-2-2014.xlsx
@@ -748,7 +748,7 @@
     <t>RULEMANES LITORAL S.R.L.</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>TURIN ALBERTO JOSE</t>
@@ -805,10 +805,10 @@
     <t>DUARTE EDMUNDO ALCIDES</t>
   </si>
   <si>
-    <t>FERNANDEZ, MARIO HUGO</t>
-  </si>
-  <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>FERNANDEZ. MARIO HUGO</t>
+  </si>
+  <si>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>ALFONSO FACUNDO ISRAEL</t>
@@ -853,10 +853,10 @@
     <t>P P M TODO PARA EL CONTROL DE PLAGAS S.R.L.</t>
   </si>
   <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
-  </si>
-  <si>
-    <t>TRABICHET MARIA, VERGARA ADEL Y OTRA</t>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+  </si>
+  <si>
+    <t>TRABICHET MARIA. VERGARA ADEL Y OTRA</t>
   </si>
   <si>
     <t>EICHHORST ROBERTO DIONISIO</t>
@@ -865,7 +865,7 @@
     <t>UDRIZARD ESTELA MARIA</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>VALORI GUILLERMO MIGUEL</t>
@@ -1237,7 +1237,7 @@
     <t>GENESIS</t>
   </si>
   <si>
-    <t>MERCANZINI, GASTON ARIEL</t>
+    <t>MERCANZINI. GASTON ARIEL</t>
   </si>
   <si>
     <t>CASA WILLIPAM</t>
@@ -1246,7 +1246,7 @@
     <t>INDUQUIMICA S.A.</t>
   </si>
   <si>
-    <t>OLVEIRA, ALBERTO MIGUEL</t>
+    <t>OLVEIRA. ALBERTO MIGUEL</t>
   </si>
   <si>
     <t>LA PRENSA FEDERAL</t>
@@ -1387,595 +1387,595 @@
     <t>8</t>
   </si>
   <si>
-    <t>9.580,00</t>
-  </si>
-  <si>
-    <t>86.533,00</t>
-  </si>
-  <si>
-    <t>48.000,00</t>
-  </si>
-  <si>
-    <t>29.454,00</t>
-  </si>
-  <si>
-    <t>15.900,00</t>
-  </si>
-  <si>
-    <t>28.454,00</t>
-  </si>
-  <si>
-    <t>908.660,25</t>
-  </si>
-  <si>
-    <t>1.581,00</t>
-  </si>
-  <si>
-    <t>12.900,00</t>
-  </si>
-  <si>
-    <t>718,95</t>
-  </si>
-  <si>
-    <t>682.875,60</t>
-  </si>
-  <si>
-    <t>274.780,00</t>
-  </si>
-  <si>
-    <t>7.429,95</t>
-  </si>
-  <si>
-    <t>167.484,00</t>
-  </si>
-  <si>
-    <t>378.281,69</t>
-  </si>
-  <si>
-    <t>24.118,00</t>
-  </si>
-  <si>
-    <t>38.562,84</t>
-  </si>
-  <si>
-    <t>19.550,00</t>
-  </si>
-  <si>
-    <t>1.350,00</t>
-  </si>
-  <si>
-    <t>4.337,23</t>
-  </si>
-  <si>
-    <t>46.867,05</t>
-  </si>
-  <si>
-    <t>352,00</t>
-  </si>
-  <si>
-    <t>11.894,72</t>
-  </si>
-  <si>
-    <t>1.050,00</t>
-  </si>
-  <si>
-    <t>295,00</t>
-  </si>
-  <si>
-    <t>1.660,00</t>
-  </si>
-  <si>
-    <t>51,90</t>
-  </si>
-  <si>
-    <t>127,50</t>
-  </si>
-  <si>
-    <t>7.595,27</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>71,70</t>
-  </si>
-  <si>
-    <t>108,64</t>
-  </si>
-  <si>
-    <t>37.680,00</t>
-  </si>
-  <si>
-    <t>14.911,00</t>
-  </si>
-  <si>
-    <t>1.274,64</t>
-  </si>
-  <si>
-    <t>1.418,00</t>
-  </si>
-  <si>
-    <t>5.517,00</t>
-  </si>
-  <si>
-    <t>33.293,14</t>
-  </si>
-  <si>
-    <t>1.601,20</t>
-  </si>
-  <si>
-    <t>85,00</t>
-  </si>
-  <si>
-    <t>7.397,00</t>
-  </si>
-  <si>
-    <t>9.968,68</t>
-  </si>
-  <si>
-    <t>738,72</t>
-  </si>
-  <si>
-    <t>60,00</t>
-  </si>
-  <si>
-    <t>86,10</t>
-  </si>
-  <si>
-    <t>1.219,00</t>
-  </si>
-  <si>
-    <t>1.467,68</t>
-  </si>
-  <si>
-    <t>1.325,00</t>
-  </si>
-  <si>
-    <t>410,00</t>
-  </si>
-  <si>
-    <t>268,68</t>
-  </si>
-  <si>
-    <t>443,85</t>
-  </si>
-  <si>
-    <t>2.776,30</t>
-  </si>
-  <si>
-    <t>1.301,32</t>
-  </si>
-  <si>
-    <t>235,00</t>
-  </si>
-  <si>
-    <t>1.773,00</t>
-  </si>
-  <si>
-    <t>3.200,00</t>
-  </si>
-  <si>
-    <t>380,00</t>
-  </si>
-  <si>
-    <t>1.049,00</t>
-  </si>
-  <si>
-    <t>160,00</t>
-  </si>
-  <si>
-    <t>1.414,33</t>
-  </si>
-  <si>
-    <t>1.880,00</t>
-  </si>
-  <si>
-    <t>285,00</t>
-  </si>
-  <si>
-    <t>4.799,98</t>
-  </si>
-  <si>
-    <t>543,14</t>
-  </si>
-  <si>
-    <t>2.620,00</t>
-  </si>
-  <si>
-    <t>1.285,00</t>
-  </si>
-  <si>
-    <t>2.187,50</t>
-  </si>
-  <si>
-    <t>5.745,00</t>
-  </si>
-  <si>
-    <t>6.524,00</t>
-  </si>
-  <si>
-    <t>298,00</t>
-  </si>
-  <si>
-    <t>299,00</t>
-  </si>
-  <si>
-    <t>7.939,11</t>
-  </si>
-  <si>
-    <t>2.457,50</t>
-  </si>
-  <si>
-    <t>3.840,00</t>
-  </si>
-  <si>
-    <t>10.215,00</t>
-  </si>
-  <si>
-    <t>344,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>28.300,00</t>
-  </si>
-  <si>
-    <t>7.475,00</t>
-  </si>
-  <si>
-    <t>13.104,00</t>
-  </si>
-  <si>
-    <t>3.204,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>7.938,99</t>
-  </si>
-  <si>
-    <t>270.000,00</t>
-  </si>
-  <si>
-    <t>23.118,00</t>
-  </si>
-  <si>
-    <t>3.248,49</t>
-  </si>
-  <si>
-    <t>334.375,87</t>
-  </si>
-  <si>
-    <t>5.240,00</t>
-  </si>
-  <si>
-    <t>107,97</t>
-  </si>
-  <si>
-    <t>43,00</t>
-  </si>
-  <si>
-    <t>7.161,11</t>
-  </si>
-  <si>
-    <t>59,96</t>
-  </si>
-  <si>
-    <t>226,31</t>
-  </si>
-  <si>
-    <t>17.784,00</t>
-  </si>
-  <si>
-    <t>3.020,00</t>
-  </si>
-  <si>
-    <t>23.016,12</t>
-  </si>
-  <si>
-    <t>38,00</t>
-  </si>
-  <si>
-    <t>169,80</t>
-  </si>
-  <si>
-    <t>1.559,75</t>
-  </si>
-  <si>
-    <t>312,00</t>
-  </si>
-  <si>
-    <t>14.016,25</t>
-  </si>
-  <si>
-    <t>2.330,27</t>
-  </si>
-  <si>
-    <t>824,24</t>
-  </si>
-  <si>
-    <t>1.438,00</t>
-  </si>
-  <si>
-    <t>20,00</t>
-  </si>
-  <si>
-    <t>5.010,00</t>
-  </si>
-  <si>
-    <t>390,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>95.397,74</t>
-  </si>
-  <si>
-    <t>6.827,55</t>
-  </si>
-  <si>
-    <t>2.880,00</t>
-  </si>
-  <si>
-    <t>1.647,36</t>
-  </si>
-  <si>
-    <t>11.900,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>650,00</t>
-  </si>
-  <si>
-    <t>2.870,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>2.150,00</t>
-  </si>
-  <si>
-    <t>1.222,07</t>
-  </si>
-  <si>
-    <t>1.669,00</t>
-  </si>
-  <si>
-    <t>128.799,90</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>59.182,00</t>
-  </si>
-  <si>
-    <t>8.470,00</t>
-  </si>
-  <si>
-    <t>24.820,00</t>
-  </si>
-  <si>
-    <t>3.900,00</t>
-  </si>
-  <si>
-    <t>2.300,00</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>54.036,30</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>9.317,00</t>
-  </si>
-  <si>
-    <t>920,00</t>
-  </si>
-  <si>
-    <t>12.246,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>1.900,00</t>
-  </si>
-  <si>
-    <t>1.750,00</t>
-  </si>
-  <si>
-    <t>6.783,00</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>3.120,00</t>
-  </si>
-  <si>
-    <t>985,00</t>
-  </si>
-  <si>
-    <t>350,00</t>
-  </si>
-  <si>
-    <t>130,00</t>
-  </si>
-  <si>
-    <t>340,00</t>
-  </si>
-  <si>
-    <t>1.520,00</t>
-  </si>
-  <si>
-    <t>10.950,00</t>
-  </si>
-  <si>
-    <t>2.428,50</t>
-  </si>
-  <si>
-    <t>46,32</t>
-  </si>
-  <si>
-    <t>1.344,00</t>
-  </si>
-  <si>
-    <t>114,00</t>
-  </si>
-  <si>
-    <t>19.339,00</t>
-  </si>
-  <si>
-    <t>210,00</t>
-  </si>
-  <si>
-    <t>541,60</t>
-  </si>
-  <si>
-    <t>404,49</t>
-  </si>
-  <si>
-    <t>206,38</t>
-  </si>
-  <si>
-    <t>1.035,03</t>
-  </si>
-  <si>
-    <t>794,00</t>
-  </si>
-  <si>
-    <t>2.102,00</t>
-  </si>
-  <si>
-    <t>2.402,78</t>
-  </si>
-  <si>
-    <t>3.470,00</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>240,00</t>
-  </si>
-  <si>
-    <t>4.269,10</t>
-  </si>
-  <si>
-    <t>146,00</t>
-  </si>
-  <si>
-    <t>374,56</t>
-  </si>
-  <si>
-    <t>149,24</t>
-  </si>
-  <si>
-    <t>123,00</t>
-  </si>
-  <si>
-    <t>360,00</t>
-  </si>
-  <si>
-    <t>31.174,24</t>
-  </si>
-  <si>
-    <t>1.276,00</t>
-  </si>
-  <si>
-    <t>1.578,80</t>
-  </si>
-  <si>
-    <t>7.922,85</t>
-  </si>
-  <si>
-    <t>6.080,00</t>
-  </si>
-  <si>
-    <t>5.100,00</t>
-  </si>
-  <si>
-    <t>875,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>291.000,00</t>
-  </si>
-  <si>
-    <t>131.000,00</t>
-  </si>
-  <si>
-    <t>418.560,00</t>
-  </si>
-  <si>
-    <t>60.000,00</t>
-  </si>
-  <si>
-    <t>190.000,00</t>
-  </si>
-  <si>
-    <t>190.500,00</t>
-  </si>
-  <si>
-    <t>191.832,00</t>
-  </si>
-  <si>
-    <t>446.000,00</t>
-  </si>
-  <si>
-    <t>223.000,00</t>
-  </si>
-  <si>
-    <t>5.950,00</t>
-  </si>
-  <si>
-    <t>52.000,00</t>
-  </si>
-  <si>
-    <t>294.144,79</t>
-  </si>
-  <si>
-    <t>420,00</t>
-  </si>
-  <si>
-    <t>24.787,00</t>
-  </si>
-  <si>
-    <t>36.163,36</t>
-  </si>
-  <si>
-    <t>52.363,00</t>
-  </si>
-  <si>
-    <t>72.000,00</t>
-  </si>
-  <si>
-    <t>7.897,00</t>
-  </si>
-  <si>
-    <t>4.150,00</t>
+    <t>9580.00</t>
+  </si>
+  <si>
+    <t>86533.00</t>
+  </si>
+  <si>
+    <t>48000.00</t>
+  </si>
+  <si>
+    <t>29454.00</t>
+  </si>
+  <si>
+    <t>15900.00</t>
+  </si>
+  <si>
+    <t>28454.00</t>
+  </si>
+  <si>
+    <t>908660.25</t>
+  </si>
+  <si>
+    <t>1581.00</t>
+  </si>
+  <si>
+    <t>12900.00</t>
+  </si>
+  <si>
+    <t>718.95</t>
+  </si>
+  <si>
+    <t>682875.60</t>
+  </si>
+  <si>
+    <t>274780.00</t>
+  </si>
+  <si>
+    <t>7429.95</t>
+  </si>
+  <si>
+    <t>167484.00</t>
+  </si>
+  <si>
+    <t>378281.69</t>
+  </si>
+  <si>
+    <t>24118.00</t>
+  </si>
+  <si>
+    <t>38562.84</t>
+  </si>
+  <si>
+    <t>19550.00</t>
+  </si>
+  <si>
+    <t>1350.00</t>
+  </si>
+  <si>
+    <t>4337.23</t>
+  </si>
+  <si>
+    <t>46867.05</t>
+  </si>
+  <si>
+    <t>352.00</t>
+  </si>
+  <si>
+    <t>11894.72</t>
+  </si>
+  <si>
+    <t>1050.00</t>
+  </si>
+  <si>
+    <t>295.00</t>
+  </si>
+  <si>
+    <t>1660.00</t>
+  </si>
+  <si>
+    <t>51.90</t>
+  </si>
+  <si>
+    <t>127.50</t>
+  </si>
+  <si>
+    <t>7595.27</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>71.70</t>
+  </si>
+  <si>
+    <t>108.64</t>
+  </si>
+  <si>
+    <t>37680.00</t>
+  </si>
+  <si>
+    <t>14911.00</t>
+  </si>
+  <si>
+    <t>1274.64</t>
+  </si>
+  <si>
+    <t>1418.00</t>
+  </si>
+  <si>
+    <t>5517.00</t>
+  </si>
+  <si>
+    <t>33293.14</t>
+  </si>
+  <si>
+    <t>1601.20</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>7397.00</t>
+  </si>
+  <si>
+    <t>9968.68</t>
+  </si>
+  <si>
+    <t>738.72</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>86.10</t>
+  </si>
+  <si>
+    <t>1219.00</t>
+  </si>
+  <si>
+    <t>1467.68</t>
+  </si>
+  <si>
+    <t>1325.00</t>
+  </si>
+  <si>
+    <t>410.00</t>
+  </si>
+  <si>
+    <t>268.68</t>
+  </si>
+  <si>
+    <t>443.85</t>
+  </si>
+  <si>
+    <t>2776.30</t>
+  </si>
+  <si>
+    <t>1301.32</t>
+  </si>
+  <si>
+    <t>235.00</t>
+  </si>
+  <si>
+    <t>1773.00</t>
+  </si>
+  <si>
+    <t>3200.00</t>
+  </si>
+  <si>
+    <t>380.00</t>
+  </si>
+  <si>
+    <t>1049.00</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>1414.33</t>
+  </si>
+  <si>
+    <t>1880.00</t>
+  </si>
+  <si>
+    <t>285.00</t>
+  </si>
+  <si>
+    <t>4799.98</t>
+  </si>
+  <si>
+    <t>543.14</t>
+  </si>
+  <si>
+    <t>2620.00</t>
+  </si>
+  <si>
+    <t>1285.00</t>
+  </si>
+  <si>
+    <t>2187.50</t>
+  </si>
+  <si>
+    <t>5745.00</t>
+  </si>
+  <si>
+    <t>6524.00</t>
+  </si>
+  <si>
+    <t>298.00</t>
+  </si>
+  <si>
+    <t>299.00</t>
+  </si>
+  <si>
+    <t>7939.11</t>
+  </si>
+  <si>
+    <t>2457.50</t>
+  </si>
+  <si>
+    <t>3840.00</t>
+  </si>
+  <si>
+    <t>10215.00</t>
+  </si>
+  <si>
+    <t>344.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>28300.00</t>
+  </si>
+  <si>
+    <t>7475.00</t>
+  </si>
+  <si>
+    <t>13104.00</t>
+  </si>
+  <si>
+    <t>3204.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>7938.99</t>
+  </si>
+  <si>
+    <t>270000.00</t>
+  </si>
+  <si>
+    <t>23118.00</t>
+  </si>
+  <si>
+    <t>3248.49</t>
+  </si>
+  <si>
+    <t>334375.87</t>
+  </si>
+  <si>
+    <t>5240.00</t>
+  </si>
+  <si>
+    <t>107.97</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>7161.11</t>
+  </si>
+  <si>
+    <t>59.96</t>
+  </si>
+  <si>
+    <t>226.31</t>
+  </si>
+  <si>
+    <t>17784.00</t>
+  </si>
+  <si>
+    <t>3020.00</t>
+  </si>
+  <si>
+    <t>23016.12</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>169.80</t>
+  </si>
+  <si>
+    <t>1559.75</t>
+  </si>
+  <si>
+    <t>312.00</t>
+  </si>
+  <si>
+    <t>14016.25</t>
+  </si>
+  <si>
+    <t>2330.27</t>
+  </si>
+  <si>
+    <t>824.24</t>
+  </si>
+  <si>
+    <t>1438.00</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>5010.00</t>
+  </si>
+  <si>
+    <t>390.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>95397.74</t>
+  </si>
+  <si>
+    <t>6827.55</t>
+  </si>
+  <si>
+    <t>2880.00</t>
+  </si>
+  <si>
+    <t>1647.36</t>
+  </si>
+  <si>
+    <t>11900.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>650.00</t>
+  </si>
+  <si>
+    <t>2870.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>2150.00</t>
+  </si>
+  <si>
+    <t>1222.07</t>
+  </si>
+  <si>
+    <t>1669.00</t>
+  </si>
+  <si>
+    <t>128799.90</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>59182.00</t>
+  </si>
+  <si>
+    <t>8470.00</t>
+  </si>
+  <si>
+    <t>24820.00</t>
+  </si>
+  <si>
+    <t>3900.00</t>
+  </si>
+  <si>
+    <t>2300.00</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>54036.30</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>9317.00</t>
+  </si>
+  <si>
+    <t>920.00</t>
+  </si>
+  <si>
+    <t>12246.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>1900.00</t>
+  </si>
+  <si>
+    <t>1750.00</t>
+  </si>
+  <si>
+    <t>6783.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>3120.00</t>
+  </si>
+  <si>
+    <t>985.00</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>340.00</t>
+  </si>
+  <si>
+    <t>1520.00</t>
+  </si>
+  <si>
+    <t>10950.00</t>
+  </si>
+  <si>
+    <t>2428.50</t>
+  </si>
+  <si>
+    <t>46.32</t>
+  </si>
+  <si>
+    <t>1344.00</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>19339.00</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>541.60</t>
+  </si>
+  <si>
+    <t>404.49</t>
+  </si>
+  <si>
+    <t>206.38</t>
+  </si>
+  <si>
+    <t>1035.03</t>
+  </si>
+  <si>
+    <t>794.00</t>
+  </si>
+  <si>
+    <t>2102.00</t>
+  </si>
+  <si>
+    <t>2402.78</t>
+  </si>
+  <si>
+    <t>3470.00</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>4269.10</t>
+  </si>
+  <si>
+    <t>146.00</t>
+  </si>
+  <si>
+    <t>374.56</t>
+  </si>
+  <si>
+    <t>149.24</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>31174.24</t>
+  </si>
+  <si>
+    <t>1276.00</t>
+  </si>
+  <si>
+    <t>1578.80</t>
+  </si>
+  <si>
+    <t>7922.85</t>
+  </si>
+  <si>
+    <t>6080.00</t>
+  </si>
+  <si>
+    <t>5100.00</t>
+  </si>
+  <si>
+    <t>875.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>291000.00</t>
+  </si>
+  <si>
+    <t>131000.00</t>
+  </si>
+  <si>
+    <t>418560.00</t>
+  </si>
+  <si>
+    <t>60000.00</t>
+  </si>
+  <si>
+    <t>190000.00</t>
+  </si>
+  <si>
+    <t>190500.00</t>
+  </si>
+  <si>
+    <t>191832.00</t>
+  </si>
+  <si>
+    <t>446000.00</t>
+  </si>
+  <si>
+    <t>223000.00</t>
+  </si>
+  <si>
+    <t>5950.00</t>
+  </si>
+  <si>
+    <t>52000.00</t>
+  </si>
+  <si>
+    <t>294144.79</t>
+  </si>
+  <si>
+    <t>420.00</t>
+  </si>
+  <si>
+    <t>24787.00</t>
+  </si>
+  <si>
+    <t>36163.36</t>
+  </si>
+  <si>
+    <t>52363.00</t>
+  </si>
+  <si>
+    <t>72000.00</t>
+  </si>
+  <si>
+    <t>7897.00</t>
+  </si>
+  <si>
+    <t>4150.00</t>
   </si>
 </sst>
 </file>
